--- a/output_validation/04_pin_factor_girl.xlsx
+++ b/output_validation/04_pin_factor_girl.xlsx
@@ -31,28 +31,28 @@
     <t>TotN</t>
   </si>
   <si>
-    <t>% 1-2</t>
-  </si>
-  <si>
-    <t># 1-2</t>
-  </si>
-  <si>
-    <t>% 3</t>
-  </si>
-  <si>
-    <t># 3</t>
-  </si>
-  <si>
-    <t>% 4</t>
-  </si>
-  <si>
-    <t># 4</t>
-  </si>
-  <si>
-    <t>% 5</t>
-  </si>
-  <si>
-    <t># 5</t>
+    <t>% severity levels 1-2</t>
+  </si>
+  <si>
+    <t># severity levels 1-2</t>
+  </si>
+  <si>
+    <t>% severity level 3</t>
+  </si>
+  <si>
+    <t># severity level 3</t>
+  </si>
+  <si>
+    <t>% severity level 4</t>
+  </si>
+  <si>
+    <t># severity level 4</t>
+  </si>
+  <si>
+    <t>% severity level 5</t>
+  </si>
+  <si>
+    <t># severity level 5</t>
   </si>
   <si>
     <t>MMR001</t>

--- a/output_validation/04_pin_factor_girl.xlsx
+++ b/output_validation/04_pin_factor_girl.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="33">
-  <si>
-    <t>admin1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="36">
+  <si>
+    <t>admin3</t>
   </si>
   <si>
     <t>Population group</t>
@@ -52,61 +52,70 @@
     <t># severity level 5</t>
   </si>
   <si>
-    <t>MMR001</t>
-  </si>
-  <si>
-    <t>MMR002</t>
-  </si>
-  <si>
-    <t>MMR003</t>
-  </si>
-  <si>
-    <t>MMR004</t>
-  </si>
-  <si>
-    <t>MMR005</t>
-  </si>
-  <si>
-    <t>MMR006</t>
-  </si>
-  <si>
-    <t>MMR007</t>
-  </si>
-  <si>
-    <t>MMR008</t>
-  </si>
-  <si>
-    <t>MMR009</t>
-  </si>
-  <si>
-    <t>MMR010</t>
-  </si>
-  <si>
-    <t>MMR011</t>
-  </si>
-  <si>
-    <t>MMR012</t>
-  </si>
-  <si>
-    <t>MMR013</t>
-  </si>
-  <si>
-    <t>MMR014</t>
-  </si>
-  <si>
-    <t>MMR015</t>
-  </si>
-  <si>
-    <t>MMR016</t>
-  </si>
-  <si>
-    <t>MMR017</t>
-  </si>
-  <si>
-    <t>MMR018</t>
+    <t>MMR008003</t>
+  </si>
+  <si>
+    <t>MMR009018</t>
+  </si>
+  <si>
+    <t>MMR009019</t>
+  </si>
+  <si>
+    <t>MMR009020</t>
+  </si>
+  <si>
+    <t>MMR012003</t>
+  </si>
+  <si>
+    <t>MMR012004</t>
+  </si>
+  <si>
+    <t>MMR012006</t>
+  </si>
+  <si>
+    <t>MMR012010</t>
+  </si>
+  <si>
+    <t>MMR012011</t>
+  </si>
+  <si>
+    <t>MMR012014</t>
+  </si>
+  <si>
+    <t>MMR012015</t>
+  </si>
+  <si>
+    <t>MMR012016</t>
+  </si>
+  <si>
+    <t>MMR001001</t>
+  </si>
+  <si>
+    <t>MMR001002</t>
+  </si>
+  <si>
+    <t>MMR001004</t>
+  </si>
+  <si>
+    <t>MMR002005</t>
+  </si>
+  <si>
+    <t>MMR002006</t>
+  </si>
+  <si>
+    <t>MMR002007</t>
   </si>
   <si>
     <t>ocap</t>
+  </si>
+  <si>
+    <t>MMR012001</t>
+  </si>
+  <si>
+    <t>MMR012005</t>
+  </si>
+  <si>
+    <t>MMR012007</t>
   </si>
   <si>
     <t>idp</t>
@@ -522,13 +531,13 @@
         <v>29</v>
       </c>
       <c r="C2">
-        <v>37650.76</v>
+        <v>82694.64</v>
       </c>
       <c r="D2">
-        <v>0.9140697865545047</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>34415.42215681489</v>
+        <v>82694.64</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -537,10 +546,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.08593021344549534</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>3235.337843185118</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -557,25 +566,25 @@
         <v>29</v>
       </c>
       <c r="C3">
-        <v>19713.68</v>
+        <v>96005.84</v>
       </c>
       <c r="D3">
-        <v>0.2953518416036127</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>5822.471692784307</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6741199099500413</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>13289.38418638393</v>
+        <v>96005.84</v>
       </c>
       <c r="H3">
-        <v>0.03052824844634616</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>601.8241208317653</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -592,19 +601,19 @@
         <v>29</v>
       </c>
       <c r="C4">
-        <v>28440.16</v>
+        <v>19713.68</v>
       </c>
       <c r="D4">
-        <v>0.6703202566789164</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>19064.01535118945</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3296797433210837</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>9376.14464881055</v>
+        <v>19713.68</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -627,31 +636,31 @@
         <v>29</v>
       </c>
       <c r="C5">
-        <v>31742.76</v>
+        <v>187845</v>
       </c>
       <c r="D5">
-        <v>0.125776487776275</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>3992.492865125232</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7550424483963755</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>23967.13122925853</v>
+        <v>187845</v>
       </c>
       <c r="H5">
-        <v>0.03435466991323431</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1090.512041935018</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08482639391411527</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>2692.623863681221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -662,25 +671,25 @@
         <v>29</v>
       </c>
       <c r="C6">
-        <v>82694.64</v>
+        <v>37650.76</v>
       </c>
       <c r="D6">
-        <v>0.1225075068689798</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>10130.71417782781</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8774924931310202</v>
+        <v>0.6964641341585097</v>
       </c>
       <c r="G6">
-        <v>72563.92582217218</v>
+        <v>26222.40396380985</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.3035358658414903</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>11428.35603619015</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -697,25 +706,25 @@
         <v>29</v>
       </c>
       <c r="C7">
-        <v>150639.356</v>
+        <v>34110.16</v>
       </c>
       <c r="D7">
-        <v>0.7256068481815973</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>109304.9483192656</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2146109304523383</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>32328.85235390102</v>
+        <v>34110.16</v>
       </c>
       <c r="H7">
-        <v>0.05978222136606444</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>9005.555326833386</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -732,31 +741,31 @@
         <v>29</v>
       </c>
       <c r="C8">
-        <v>60490.066</v>
+        <v>69429.36</v>
       </c>
       <c r="D8">
-        <v>0.7924190383905769</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>47933.47993190253</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1591963593292097</v>
+        <v>0.8613945520003562</v>
       </c>
       <c r="G8">
-        <v>9629.798282783611</v>
+        <v>59806.07245287145</v>
       </c>
       <c r="H8">
-        <v>0.04838460228021334</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>2926.787785313856</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1386054479996439</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>9623.287547128557</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -767,13 +776,13 @@
         <v>29</v>
       </c>
       <c r="C9">
-        <v>43661.506</v>
+        <v>41354.88</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>43661.506</v>
+        <v>41354.88</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -802,19 +811,19 @@
         <v>29</v>
       </c>
       <c r="C10">
-        <v>41323.835</v>
+        <v>37505.16</v>
       </c>
       <c r="D10">
-        <v>0.6777018473264718</v>
+        <v>0.4190776228049733</v>
       </c>
       <c r="E10">
-        <v>28005.23931811431</v>
+        <v>15717.57329572017</v>
       </c>
       <c r="F10">
-        <v>0.3222981526735283</v>
+        <v>0.5809223771950267</v>
       </c>
       <c r="G10">
-        <v>13318.59568188569</v>
+        <v>21787.58670427983</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -840,16 +849,16 @@
         <v>187845</v>
       </c>
       <c r="D11">
-        <v>0.8620064665872667</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>161923.6047160851</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.1379935334127334</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>25921.39528391491</v>
+        <v>187845</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -872,25 +881,25 @@
         <v>29</v>
       </c>
       <c r="C12">
-        <v>37505.16</v>
+        <v>60490.066</v>
       </c>
       <c r="D12">
-        <v>0.7715321758342893</v>
+        <v>0.3864325710142018</v>
       </c>
       <c r="E12">
-        <v>28936.43769981315</v>
+        <v>23375.33172519876</v>
       </c>
       <c r="F12">
-        <v>0.1457899511717343</v>
+        <v>0.6135674289857982</v>
       </c>
       <c r="G12">
-        <v>5467.875445088081</v>
+        <v>37114.73427480125</v>
       </c>
       <c r="H12">
-        <v>0.08267787299397636</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>3100.846855098762</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -907,31 +916,31 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>41354.88</v>
+        <v>49846.447</v>
       </c>
       <c r="D13">
-        <v>0.2976141001389314</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>12307.79539755349</v>
+        <v>49846.447</v>
       </c>
       <c r="F13">
-        <v>0.6202356802759943</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>25649.77212953211</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0.03738545073187088</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1546.070828762433</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0447647688532033</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1851.24164415196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -942,25 +951,25 @@
         <v>29</v>
       </c>
       <c r="C14">
-        <v>49846.447</v>
+        <v>82694.64</v>
       </c>
       <c r="D14">
-        <v>0.5554147187463672</v>
+        <v>0.9140697865545047</v>
       </c>
       <c r="E14">
-        <v>27685.4503410107</v>
+        <v>75588.6719340016</v>
       </c>
       <c r="F14">
-        <v>0.4041575688726384</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>20145.81883645882</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0.04042771238099447</v>
+        <v>0.08593021344549534</v>
       </c>
       <c r="I14">
-        <v>2015.177822530484</v>
+        <v>7105.968065998397</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -977,25 +986,25 @@
         <v>29</v>
       </c>
       <c r="C15">
-        <v>96005.84</v>
+        <v>37650.76</v>
       </c>
       <c r="D15">
-        <v>0.8804077503986378</v>
+        <v>0.9140697865545047</v>
       </c>
       <c r="E15">
-        <v>84524.28561953155</v>
+        <v>34415.42215681489</v>
       </c>
       <c r="F15">
-        <v>0.1195922496013622</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>11481.55438046844</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.08593021344549534</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3235.337843185118</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1012,25 +1021,25 @@
         <v>29</v>
       </c>
       <c r="C16">
-        <v>69429.36</v>
+        <v>34110.16</v>
       </c>
       <c r="D16">
-        <v>0.6968263533264397</v>
+        <v>0.9140697865545047</v>
       </c>
       <c r="E16">
-        <v>48380.20774258858</v>
+        <v>31179.06667054</v>
       </c>
       <c r="F16">
-        <v>0.3031736466735603</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>21049.15225741142</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.08593021344549534</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2931.093329459997</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1047,25 +1056,25 @@
         <v>29</v>
       </c>
       <c r="C17">
-        <v>37502.906</v>
+        <v>43661.506</v>
       </c>
       <c r="D17">
-        <v>0.9310762092269746</v>
+        <v>0.2953518416036127</v>
       </c>
       <c r="E17">
-        <v>34918.06355347556</v>
+        <v>12895.50620428718</v>
       </c>
       <c r="F17">
-        <v>0.06892379077302539</v>
+        <v>0.6741199099500413</v>
       </c>
       <c r="G17">
-        <v>2584.842446524438</v>
+        <v>29433.09049300319</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.03052824844634616</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1332.909302709633</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1082,25 +1091,25 @@
         <v>29</v>
       </c>
       <c r="C18">
-        <v>43375.465</v>
+        <v>150639.356</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0.2953518416036127</v>
       </c>
       <c r="E18">
-        <v>43375.465</v>
+        <v>44491.61121258222</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.6741199099500413</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>101548.9891016522</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.03052824844634616</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4598.755685765585</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1117,25 +1126,25 @@
         <v>29</v>
       </c>
       <c r="C19">
-        <v>34110.16</v>
+        <v>37502.906</v>
       </c>
       <c r="D19">
-        <v>0.7262436922562635</v>
+        <v>0.2953518416036127</v>
       </c>
       <c r="E19">
-        <v>24772.28854185191</v>
+        <v>11076.55235258717</v>
       </c>
       <c r="F19">
-        <v>0.2737563077437364</v>
+        <v>0.6741199099500413</v>
       </c>
       <c r="G19">
-        <v>9337.871458148087</v>
+        <v>25281.45561558487</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03052824844634616</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1144.898031827966</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1151,7 +1160,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1194,31 +1203,31 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C2">
-        <v>5378.68</v>
+        <v>13715.12</v>
       </c>
       <c r="D2">
-        <v>0.6986378325573731</v>
+        <v>0.7203196040432472</v>
       </c>
       <c r="E2">
-        <v>3757.749337219692</v>
+        <v>9879.269807805622</v>
       </c>
       <c r="F2">
-        <v>0.1309296905708729</v>
+        <v>0.2796803959567528</v>
       </c>
       <c r="G2">
-        <v>704.2289080797425</v>
+        <v>3835.85019219438</v>
       </c>
       <c r="H2">
-        <v>0.1704324768717539</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>916.7017547005655</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1229,31 +1238,31 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C3">
-        <v>2816.24</v>
+        <v>26835</v>
       </c>
       <c r="D3">
-        <v>0.4671520190982254</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1315.612202265186</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4362981448828352</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1228.720287544836</v>
+        <v>26835</v>
       </c>
       <c r="H3">
-        <v>0.09654983601893945</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>271.907510189978</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1264,31 +1273,31 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C4">
-        <v>4062.880000000001</v>
+        <v>11813.52</v>
       </c>
       <c r="D4">
-        <v>0.5505005570185084</v>
+        <v>0.2686371247226884</v>
       </c>
       <c r="E4">
-        <v>2236.617703099358</v>
+        <v>3173.550045653974</v>
       </c>
       <c r="F4">
-        <v>0.4494994429814916</v>
+        <v>0.5716063443351023</v>
       </c>
       <c r="G4">
-        <v>1826.262296900643</v>
+        <v>6752.682980929618</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.1597565309422093</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1887.286973416409</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1299,31 +1308,31 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C5">
-        <v>4534.68</v>
+        <v>5378.68</v>
       </c>
       <c r="D5">
-        <v>0.2362255938995011</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1071.20747614419</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7237605554225978</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>3282.022515463746</v>
+        <v>5378.68</v>
       </c>
       <c r="H5">
-        <v>0.04001385067790107</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>181.4500083920644</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1334,31 +1343,31 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C6">
-        <v>11813.52</v>
+        <v>4534.68</v>
       </c>
       <c r="D6">
-        <v>0.06043364741733242</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>713.9341024376049</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8583608304788509</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>10140.26283807852</v>
+        <v>4534.68</v>
       </c>
       <c r="H6">
-        <v>0.08120552210381662</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>959.3230594838799</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1369,66 +1378,66 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C7">
-        <v>21519.908</v>
+        <v>4062.880000000001</v>
       </c>
       <c r="D7">
-        <v>0.165981388455387</v>
+        <v>0.5480373400211801</v>
       </c>
       <c r="E7">
-        <v>3571.904209272192</v>
+        <v>2226.609948025252</v>
       </c>
       <c r="F7">
-        <v>0.6465252877086792</v>
+        <v>0.18983405326939</v>
       </c>
       <c r="G7">
-        <v>13913.16471116431</v>
+        <v>771.2729783471395</v>
       </c>
       <c r="H7">
-        <v>0.1874933238359339</v>
+        <v>0.1812730652342958</v>
       </c>
       <c r="I7">
-        <v>4034.839079563505</v>
+        <v>736.4907112791157</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.08085554147513409</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>328.5063623484928</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C8">
-        <v>8641.438</v>
+        <v>5907.84</v>
       </c>
       <c r="D8">
-        <v>0.8382017667306252</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>7243.268598693161</v>
+        <v>5907.84</v>
       </c>
       <c r="F8">
-        <v>0.1230474506907969</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>1063.306916202578</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.03875078257857791</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>334.8624851042612</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1439,31 +1448,31 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C9">
-        <v>5903.405000000001</v>
+        <v>11813.52</v>
       </c>
       <c r="D9">
-        <v>0.3348719340637654</v>
+        <v>0.6986378325573731</v>
       </c>
       <c r="E9">
-        <v>1976.884649911703</v>
+        <v>8253.372007673179</v>
       </c>
       <c r="F9">
-        <v>0.5078237190080316</v>
+        <v>0.1309296905708729</v>
       </c>
       <c r="G9">
-        <v>2997.889081910609</v>
+        <v>1546.740518152818</v>
       </c>
       <c r="H9">
-        <v>0.1573043469282031</v>
+        <v>0.1704324768717539</v>
       </c>
       <c r="I9">
-        <v>928.631268177689</v>
+        <v>2013.407474174003</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1474,31 +1483,31 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C10">
-        <v>5357.880000000001</v>
+        <v>5378.68</v>
       </c>
       <c r="D10">
-        <v>0.5046915229780159</v>
+        <v>0.6986378325573731</v>
       </c>
       <c r="E10">
-        <v>2704.076617133452</v>
+        <v>3757.749337219692</v>
       </c>
       <c r="F10">
-        <v>0.3583226586368378</v>
+        <v>0.1309296905708729</v>
       </c>
       <c r="G10">
-        <v>1919.849806257141</v>
+        <v>704.2289080797425</v>
       </c>
       <c r="H10">
-        <v>0.1369858183851464</v>
+        <v>0.1704324768717539</v>
       </c>
       <c r="I10">
-        <v>733.9535766094082</v>
+        <v>916.7017547005655</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1509,66 +1518,66 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C11">
-        <v>5907.84</v>
+        <v>4872.88</v>
       </c>
       <c r="D11">
-        <v>0.3709017435176196</v>
+        <v>0.6986378325573731</v>
       </c>
       <c r="E11">
-        <v>2191.228156423134</v>
+        <v>3404.378321512173</v>
       </c>
       <c r="F11">
-        <v>0.4558409666193095</v>
+        <v>0.1309296905708729</v>
       </c>
       <c r="G11">
-        <v>2693.035496232222</v>
+        <v>638.0046705889951</v>
       </c>
       <c r="H11">
-        <v>0.1422492925461661</v>
+        <v>0.1704324768717539</v>
       </c>
       <c r="I11">
-        <v>840.386060475942</v>
+        <v>830.4970078988323</v>
       </c>
       <c r="J11">
-        <v>0.03100799731690495</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>183.1902868687038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C12">
-        <v>13715.12</v>
+        <v>6237.358</v>
       </c>
       <c r="D12">
-        <v>0.4017572619326708</v>
+        <v>0.4671520190982254</v>
       </c>
       <c r="E12">
-        <v>5510.149058278012</v>
+        <v>2913.794383538469</v>
       </c>
       <c r="F12">
-        <v>0.5982427380673293</v>
+        <v>0.4362981448828352</v>
       </c>
       <c r="G12">
-        <v>8204.970941721991</v>
+        <v>2721.347724370112</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.09654983601893945</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>602.2158920914202</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1579,36 +1588,71 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C13">
-        <v>9918.480000000001</v>
+        <v>21519.908</v>
       </c>
       <c r="D13">
-        <v>0.07542672232317281</v>
+        <v>0.4671520190982254</v>
       </c>
       <c r="E13">
-        <v>748.1184368279431</v>
+        <v>10053.06847300806</v>
       </c>
       <c r="F13">
-        <v>0.8690003027501599</v>
+        <v>0.4362981448828352</v>
       </c>
       <c r="G13">
-        <v>8619.162122821406</v>
+        <v>9389.095938449287</v>
       </c>
       <c r="H13">
-        <v>0.05557297492666727</v>
+        <v>0.09654983601893945</v>
       </c>
       <c r="I13">
-        <v>551.1994403506509</v>
+        <v>2077.743588542663</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>5357.558000000001</v>
+      </c>
+      <c r="D14">
+        <v>0.4671520190982254</v>
+      </c>
+      <c r="E14">
+        <v>2502.79403713585</v>
+      </c>
+      <c r="F14">
+        <v>0.4362981448828352</v>
+      </c>
+      <c r="G14">
+        <v>2337.492616502193</v>
+      </c>
+      <c r="H14">
+        <v>0.09654983601893945</v>
+      </c>
+      <c r="I14">
+        <v>517.2713463619572</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>0</v>
       </c>
     </row>
@@ -1619,7 +1663,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1662,25 +1706,25 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>2689.34</v>
+        <v>1408.12</v>
       </c>
       <c r="D2">
-        <v>0.5697812081955935</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1532.335394448738</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4302187918044066</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1157.004605551263</v>
+        <v>1408.12</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1697,25 +1741,25 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C3">
-        <v>1408.12</v>
+        <v>13417.5</v>
       </c>
       <c r="D3">
-        <v>0.112582448398471</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>158.529597238855</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8584936775155422</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1208.862117183185</v>
+        <v>13417.5</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1724,39 +1768,39 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02892387408598686</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>40.72828557795982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C4">
-        <v>2031.44</v>
+        <v>5906.760000000001</v>
       </c>
       <c r="D4">
-        <v>0.7742993638732156</v>
+        <v>0.4958472855812806</v>
       </c>
       <c r="E4">
-        <v>1572.942699746605</v>
+        <v>2928.850912580085</v>
       </c>
       <c r="F4">
-        <v>0.2257006361267845</v>
+        <v>0.2016356958596897</v>
       </c>
       <c r="G4">
-        <v>458.4973002533951</v>
+        <v>1191.013662876181</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.3025170185590298</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1786.895424543736</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1767,31 +1811,31 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C5">
-        <v>2267.34</v>
+        <v>2689.34</v>
       </c>
       <c r="D5">
-        <v>0.4535007307593025</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1028.240346879797</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4693465799928334</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1064.168274680951</v>
+        <v>2689.34</v>
       </c>
       <c r="H5">
-        <v>0.07715268924786407</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>174.9313784392522</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1802,25 +1846,25 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C6">
-        <v>5906.760000000001</v>
+        <v>2436.44</v>
       </c>
       <c r="D6">
-        <v>0.05932678460569384</v>
+        <v>0.8405128819480061</v>
       </c>
       <c r="E6">
-        <v>350.4290782375282</v>
+        <v>2047.8592060934</v>
       </c>
       <c r="F6">
-        <v>0.9406732153943062</v>
+        <v>0.1594871180519939</v>
       </c>
       <c r="G6">
-        <v>5556.330921762473</v>
+        <v>388.5807939066</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1837,31 +1881,31 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C7">
-        <v>10759.954</v>
+        <v>2267.34</v>
       </c>
       <c r="D7">
-        <v>0.4111018004330445</v>
+        <v>0.5079094701116023</v>
       </c>
       <c r="E7">
-        <v>4423.43646197674</v>
+        <v>1151.60345796284</v>
       </c>
       <c r="F7">
-        <v>0.2813629377676347</v>
+        <v>0.4920905298883979</v>
       </c>
       <c r="G7">
-        <v>3027.452267684613</v>
+        <v>1115.73654203716</v>
       </c>
       <c r="H7">
-        <v>0.3075352617993207</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>3309.065270338649</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1875,22 +1919,22 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C8">
-        <v>4320.719</v>
+        <v>4959.240000000001</v>
       </c>
       <c r="D8">
-        <v>0.6174902311128901</v>
+        <v>0.5648647401941971</v>
       </c>
       <c r="E8">
-        <v>2668.001773883856</v>
+        <v>2801.29981416067</v>
       </c>
       <c r="F8">
-        <v>0.3825097688871097</v>
+        <v>0.4351352598058029</v>
       </c>
       <c r="G8">
-        <v>1652.717226116144</v>
+        <v>2157.94018583933</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1907,31 +1951,31 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C9">
-        <v>2951.7025</v>
+        <v>13417.5</v>
       </c>
       <c r="D9">
-        <v>0.1101821941067391</v>
+        <v>0.5514290487937468</v>
       </c>
       <c r="E9">
-        <v>325.2250578003472</v>
+        <v>7398.799262190098</v>
       </c>
       <c r="F9">
-        <v>0.7635005315760697</v>
+        <v>0.4485709512062533</v>
       </c>
       <c r="G9">
-        <v>2253.626427804414</v>
+        <v>6018.700737809904</v>
       </c>
       <c r="H9">
-        <v>0.1263172743171913</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>372.8510143952392</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1942,31 +1986,31 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C10">
-        <v>2678.940000000001</v>
+        <v>5906.760000000001</v>
       </c>
       <c r="D10">
-        <v>0.4768203747314557</v>
+        <v>0.5697812081955935</v>
       </c>
       <c r="E10">
-        <v>1277.373174683086</v>
+        <v>3365.560849321404</v>
       </c>
       <c r="F10">
-        <v>0.3771087072538309</v>
+        <v>0.4302187918044066</v>
       </c>
       <c r="G10">
-        <v>1010.251600210578</v>
+        <v>2541.199150678597</v>
       </c>
       <c r="H10">
-        <v>0.1460709180147134</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>391.3152251063364</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1977,31 +2021,31 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C11">
-        <v>2953.92</v>
+        <v>2689.34</v>
       </c>
       <c r="D11">
-        <v>0.5063949657374379</v>
+        <v>0.5697812081955935</v>
       </c>
       <c r="E11">
-        <v>1495.850217191133</v>
+        <v>1532.335394448738</v>
       </c>
       <c r="F11">
-        <v>0.4543501314915568</v>
+        <v>0.4302187918044066</v>
       </c>
       <c r="G11">
-        <v>1342.11394041554</v>
+        <v>1157.004605551263</v>
       </c>
       <c r="H11">
-        <v>0.03925490277100506</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>115.9558423933273</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2012,25 +2056,25 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C12">
-        <v>6857.560000000001</v>
+        <v>2436.44</v>
       </c>
       <c r="D12">
-        <v>0.6101954436206178</v>
+        <v>0.5697812081955935</v>
       </c>
       <c r="E12">
-        <v>4184.451866355004</v>
+        <v>1388.237726896072</v>
       </c>
       <c r="F12">
-        <v>0.3898045563793823</v>
+        <v>0.4302187918044066</v>
       </c>
       <c r="G12">
-        <v>2673.108133644997</v>
+        <v>1048.202273103929</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2047,37 +2091,107 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C13">
-        <v>4959.240000000001</v>
+        <v>3118.679</v>
       </c>
       <c r="D13">
-        <v>0.4427434746950732</v>
+        <v>0.112582448398471</v>
       </c>
       <c r="E13">
-        <v>2195.671149446795</v>
+        <v>351.108517588895</v>
       </c>
       <c r="F13">
-        <v>0.4344131602771897</v>
+        <v>0.8584936775155422</v>
       </c>
       <c r="G13">
-        <v>2154.359120973051</v>
+        <v>2677.366203700494</v>
       </c>
       <c r="H13">
-        <v>0.1228433650277372</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>609.2097295801553</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.02892387408598686</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>90.20427871061142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>10759.954</v>
+      </c>
+      <c r="D14">
+        <v>0.112582448398471</v>
+      </c>
+      <c r="E14">
+        <v>1211.381965974922</v>
+      </c>
+      <c r="F14">
+        <v>0.8584936775155422</v>
+      </c>
+      <c r="G14">
+        <v>9237.352479358071</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.02892387408598686</v>
+      </c>
+      <c r="K14">
+        <v>311.2195546670107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>2678.779</v>
+      </c>
+      <c r="D15">
+        <v>0.112582448398471</v>
+      </c>
+      <c r="E15">
+        <v>301.5834985384077</v>
+      </c>
+      <c r="F15">
+        <v>0.8584936775155422</v>
+      </c>
+      <c r="G15">
+        <v>2299.714834961407</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.02892387408598686</v>
+      </c>
+      <c r="K15">
+        <v>77.48066650018581</v>
       </c>
     </row>
   </sheetData>
@@ -2087,7 +2201,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2130,36 +2244,211 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>17720.28</v>
+      </c>
+      <c r="D2">
+        <v>0.2304031860173474</v>
+      </c>
+      <c r="E2">
+        <v>4082.808969119482</v>
+      </c>
+      <c r="F2">
+        <v>0.4969275497660341</v>
+      </c>
+      <c r="G2">
+        <v>8805.695321568059</v>
+      </c>
+      <c r="H2">
+        <v>0.2726692642166184</v>
+      </c>
+      <c r="I2">
+        <v>4831.775709312459</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>8068.02</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>8068.02</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>7309.32</v>
+      </c>
+      <c r="D4">
+        <v>0.7820095700217157</v>
+      </c>
+      <c r="E4">
+        <v>5715.958190351127</v>
+      </c>
+      <c r="F4">
+        <v>0.2179904299782842</v>
+      </c>
+      <c r="G4">
+        <v>1593.361809648872</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>6802.02</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>6802.02</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
         <v>32</v>
       </c>
-      <c r="C2">
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>6094.32</v>
+      </c>
+      <c r="D6">
+        <v>0.233279274036484</v>
+      </c>
+      <c r="E6">
+        <v>1421.678545346025</v>
+      </c>
+      <c r="F6">
+        <v>0.7667207259635161</v>
+      </c>
+      <c r="G6">
+        <v>4672.641454653975</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
         <v>8861.76</v>
       </c>
-      <c r="D2">
-        <v>0.357012769940906</v>
-      </c>
-      <c r="E2">
-        <v>3163.761484151523</v>
-      </c>
-      <c r="F2">
-        <v>0.5302458965458244</v>
-      </c>
-      <c r="G2">
-        <v>4698.911876173926</v>
-      </c>
-      <c r="H2">
-        <v>0.1127413335132695</v>
-      </c>
-      <c r="I2">
-        <v>999.0866396745514</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>8861.76</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>0</v>
       </c>
     </row>

--- a/output_validation/04_pin_factor_girl.xlsx
+++ b/output_validation/04_pin_factor_girl.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="36">
-  <si>
-    <t>admin3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="33">
+  <si>
+    <t>admin1</t>
   </si>
   <si>
     <t>Population group</t>
@@ -52,70 +52,61 @@
     <t># severity level 5</t>
   </si>
   <si>
-    <t>MMR008003</t>
-  </si>
-  <si>
-    <t>MMR009018</t>
-  </si>
-  <si>
-    <t>MMR009019</t>
-  </si>
-  <si>
-    <t>MMR009020</t>
-  </si>
-  <si>
-    <t>MMR012003</t>
-  </si>
-  <si>
-    <t>MMR012004</t>
-  </si>
-  <si>
-    <t>MMR012006</t>
-  </si>
-  <si>
-    <t>MMR012010</t>
-  </si>
-  <si>
-    <t>MMR012011</t>
-  </si>
-  <si>
-    <t>MMR012014</t>
-  </si>
-  <si>
-    <t>MMR012015</t>
-  </si>
-  <si>
-    <t>MMR012016</t>
-  </si>
-  <si>
-    <t>MMR001001</t>
-  </si>
-  <si>
-    <t>MMR001002</t>
-  </si>
-  <si>
-    <t>MMR001004</t>
-  </si>
-  <si>
-    <t>MMR002005</t>
-  </si>
-  <si>
-    <t>MMR002006</t>
-  </si>
-  <si>
-    <t>MMR002007</t>
+    <t>MMR001</t>
+  </si>
+  <si>
+    <t>MMR002</t>
+  </si>
+  <si>
+    <t>MMR003</t>
+  </si>
+  <si>
+    <t>MMR004</t>
+  </si>
+  <si>
+    <t>MMR005</t>
+  </si>
+  <si>
+    <t>MMR006</t>
+  </si>
+  <si>
+    <t>MMR007</t>
+  </si>
+  <si>
+    <t>MMR008</t>
+  </si>
+  <si>
+    <t>MMR009</t>
+  </si>
+  <si>
+    <t>MMR010</t>
+  </si>
+  <si>
+    <t>MMR011</t>
+  </si>
+  <si>
+    <t>MMR012</t>
+  </si>
+  <si>
+    <t>MMR013</t>
+  </si>
+  <si>
+    <t>MMR014</t>
+  </si>
+  <si>
+    <t>MMR015</t>
+  </si>
+  <si>
+    <t>MMR016</t>
+  </si>
+  <si>
+    <t>MMR017</t>
+  </si>
+  <si>
+    <t>MMR018</t>
   </si>
   <si>
     <t>ocap</t>
-  </si>
-  <si>
-    <t>MMR012001</t>
-  </si>
-  <si>
-    <t>MMR012005</t>
-  </si>
-  <si>
-    <t>MMR012007</t>
   </si>
   <si>
     <t>idp</t>
@@ -531,31 +522,31 @@
         <v>29</v>
       </c>
       <c r="C2">
-        <v>82694.64</v>
+        <v>37650.76</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.7355010475254173</v>
       </c>
       <c r="E2">
-        <v>82694.64</v>
+        <v>27692.17342012808</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.2347291702405611</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>8837.731653726507</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.02317121176486182</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>872.4137330679887</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.006598570469159679</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>248.4411930774185</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -566,25 +557,25 @@
         <v>29</v>
       </c>
       <c r="C3">
-        <v>96005.84</v>
+        <v>19713.68</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.2881114296960966</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>5679.736529371346</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6737953618662589</v>
       </c>
       <c r="G3">
-        <v>96005.84</v>
+        <v>13282.98614931563</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.03809320843764467</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>750.9573213130269</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -601,31 +592,31 @@
         <v>29</v>
       </c>
       <c r="C4">
-        <v>19713.68</v>
+        <v>28440.16</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.542864226316311</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>15439.1454547121</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3976487884179679</v>
       </c>
       <c r="G4">
-        <v>19713.68</v>
+        <v>11309.19516641315</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.05502289074026563</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1564.859816315673</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.004464094525455411</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>126.9595625590759</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -636,31 +627,31 @@
         <v>29</v>
       </c>
       <c r="C5">
-        <v>187845</v>
+        <v>31742.76</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.2957402131124322</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>9387.610607176788</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6578798859844721</v>
       </c>
       <c r="G5">
-        <v>187845</v>
+        <v>20882.92332963246</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.03533270074859607</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1121.557440014505</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.01104720015449962</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>350.6686231762443</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -671,31 +662,31 @@
         <v>29</v>
       </c>
       <c r="C6">
-        <v>37650.76</v>
+        <v>82694.64</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.2168995155835068</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>17936.42735735248</v>
       </c>
       <c r="F6">
-        <v>0.6964641341585097</v>
+        <v>0.7305780530002808</v>
       </c>
       <c r="G6">
-        <v>26222.40396380985</v>
+        <v>60414.88908475914</v>
       </c>
       <c r="H6">
-        <v>0.3035358658414903</v>
+        <v>0.04763420632265963</v>
       </c>
       <c r="I6">
-        <v>11428.35603619015</v>
+        <v>3939.093543538062</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.004888225093552757</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>404.2300143503115</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -706,25 +697,25 @@
         <v>29</v>
       </c>
       <c r="C7">
-        <v>34110.16</v>
+        <v>150639.356</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.7255237755561456</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>109292.4343124663</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.2370695257967525</v>
       </c>
       <c r="G7">
-        <v>34110.16</v>
+        <v>35712.00069324818</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.03740669864710201</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>5634.920994285517</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -741,31 +732,31 @@
         <v>29</v>
       </c>
       <c r="C8">
-        <v>69429.36</v>
+        <v>60490.066</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.7749837497270196</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>46878.8181699149</v>
       </c>
       <c r="F8">
-        <v>0.8613945520003562</v>
+        <v>0.209809235113927</v>
       </c>
       <c r="G8">
-        <v>59806.07245287145</v>
+        <v>12691.37447945096</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0152070151590535</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>919.8733506341467</v>
       </c>
       <c r="J8">
-        <v>0.1386054479996439</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>9623.287547128557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -776,25 +767,25 @@
         <v>29</v>
       </c>
       <c r="C9">
-        <v>41354.88</v>
+        <v>43661.506</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.7567306197548094</v>
       </c>
       <c r="E9">
-        <v>41354.88</v>
+        <v>33039.99849480833</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.1675719832943586</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>7316.445154038537</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.07569739695083223</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3305.062351153143</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -811,25 +802,25 @@
         <v>29</v>
       </c>
       <c r="C10">
-        <v>37505.16</v>
+        <v>41323.835</v>
       </c>
       <c r="D10">
-        <v>0.4190776228049733</v>
+        <v>0.7815722567773472</v>
       </c>
       <c r="E10">
-        <v>15717.57329572017</v>
+        <v>32297.56297964473</v>
       </c>
       <c r="F10">
-        <v>0.5809223771950267</v>
+        <v>0.2048177817451928</v>
       </c>
       <c r="G10">
-        <v>21787.58670427983</v>
+        <v>8463.85621790436</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0136099614774599</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>562.4158024509092</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -849,28 +840,28 @@
         <v>187845</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.7738342948998559</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>145360.9031254634</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.1835332944656455</v>
       </c>
       <c r="G11">
-        <v>187845</v>
+        <v>34475.81169889917</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.03543814744568882</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>6656.878806935417</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.007194263188809723</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1351.406368701962</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -881,31 +872,31 @@
         <v>29</v>
       </c>
       <c r="C12">
-        <v>60490.066</v>
+        <v>37505.16</v>
       </c>
       <c r="D12">
-        <v>0.3864325710142018</v>
+        <v>0.6759834838293406</v>
       </c>
       <c r="E12">
-        <v>23375.33172519876</v>
+        <v>25352.86871837683</v>
       </c>
       <c r="F12">
-        <v>0.6135674289857982</v>
+        <v>0.1561867307546227</v>
       </c>
       <c r="G12">
-        <v>37114.73427480125</v>
+        <v>5857.808326829044</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.08718604184052609</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3269.926448995625</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.08064374357551064</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>3024.556505798499</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -916,31 +907,31 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>49846.447</v>
+        <v>41354.88</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.4619138320502864</v>
       </c>
       <c r="E13">
-        <v>49846.447</v>
+        <v>19102.39109477975</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.4818668178334236</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>19927.54442748309</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.05227372759553111</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2161.773731865878</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.003945622520758929</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>163.170745871283</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -951,31 +942,31 @@
         <v>29</v>
       </c>
       <c r="C14">
-        <v>82694.64</v>
+        <v>49846.447</v>
       </c>
       <c r="D14">
-        <v>0.9140697865545047</v>
+        <v>0.6577904324554797</v>
       </c>
       <c r="E14">
-        <v>75588.6719340016</v>
+        <v>32788.51592849915</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>0.2601186299610622</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>12965.9895020667</v>
       </c>
       <c r="H14">
-        <v>0.08593021344549534</v>
+        <v>0.07780282150174836</v>
       </c>
       <c r="I14">
-        <v>7105.968065998397</v>
+        <v>3878.19421843736</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.004288116081709647</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>213.7473509967876</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -986,25 +977,25 @@
         <v>29</v>
       </c>
       <c r="C15">
-        <v>37650.76</v>
+        <v>96005.84</v>
       </c>
       <c r="D15">
-        <v>0.9140697865545047</v>
+        <v>0.8174822877535954</v>
       </c>
       <c r="E15">
-        <v>34415.42215681489</v>
+        <v>78483.07372090564</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.1384496847897296</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>13291.97828597322</v>
       </c>
       <c r="H15">
-        <v>0.08593021344549534</v>
+        <v>0.04406802745667497</v>
       </c>
       <c r="I15">
-        <v>3235.337843185118</v>
+        <v>4230.787993121144</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1021,31 +1012,31 @@
         <v>29</v>
       </c>
       <c r="C16">
-        <v>34110.16</v>
+        <v>69429.36</v>
       </c>
       <c r="D16">
-        <v>0.9140697865545047</v>
+        <v>0.5381211257149618</v>
       </c>
       <c r="E16">
-        <v>31179.06667054</v>
+        <v>37361.40536086934</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.3977397650072821</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>27614.81733100599</v>
       </c>
       <c r="H16">
-        <v>0.08593021344549534</v>
+        <v>0.05827276357034409</v>
       </c>
       <c r="I16">
-        <v>2931.093329459997</v>
+        <v>4045.840680120305</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.005866345707411853</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>407.2966280043522</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1056,25 +1047,25 @@
         <v>29</v>
       </c>
       <c r="C17">
-        <v>43661.506</v>
+        <v>37502.906</v>
       </c>
       <c r="D17">
-        <v>0.2953518416036127</v>
+        <v>0.8548534137558078</v>
       </c>
       <c r="E17">
-        <v>12895.50620428718</v>
+        <v>32059.48721986317</v>
       </c>
       <c r="F17">
-        <v>0.6741199099500413</v>
+        <v>0.1094267861545242</v>
       </c>
       <c r="G17">
-        <v>29433.09049300319</v>
+        <v>4103.822475035223</v>
       </c>
       <c r="H17">
-        <v>0.03052824844634616</v>
+        <v>0.03571980008966798</v>
       </c>
       <c r="I17">
-        <v>1332.909302709633</v>
+        <v>1339.59630510161</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1091,31 +1082,31 @@
         <v>29</v>
       </c>
       <c r="C18">
-        <v>150639.356</v>
+        <v>43375.465</v>
       </c>
       <c r="D18">
-        <v>0.2953518416036127</v>
+        <v>0.9248139239710328</v>
       </c>
       <c r="E18">
-        <v>44491.61121258222</v>
+        <v>40114.2339907182</v>
       </c>
       <c r="F18">
-        <v>0.6741199099500413</v>
+        <v>0.03634751776327397</v>
       </c>
       <c r="G18">
-        <v>101548.9891016522</v>
+        <v>1576.590484577769</v>
       </c>
       <c r="H18">
-        <v>0.03052824844634616</v>
+        <v>0.03292999288485467</v>
       </c>
       <c r="I18">
-        <v>4598.755685765585</v>
+        <v>1428.353753827263</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.005908565380838581</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>256.2867708767756</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1126,25 +1117,25 @@
         <v>29</v>
       </c>
       <c r="C19">
-        <v>37502.906</v>
+        <v>34110.16</v>
       </c>
       <c r="D19">
-        <v>0.2953518416036127</v>
+        <v>0.87123704802994</v>
       </c>
       <c r="E19">
-        <v>11076.55235258717</v>
+        <v>29718.03510622893</v>
       </c>
       <c r="F19">
-        <v>0.6741199099500413</v>
+        <v>0.08529242819010917</v>
       </c>
       <c r="G19">
-        <v>25281.45561558487</v>
+        <v>2909.338372353134</v>
       </c>
       <c r="H19">
-        <v>0.03052824844634616</v>
+        <v>0.04347052377995093</v>
       </c>
       <c r="I19">
-        <v>1144.898031827966</v>
+        <v>1482.786521417931</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1160,7 +1151,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1203,31 +1194,31 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2">
-        <v>13715.12</v>
+        <v>5378.68</v>
       </c>
       <c r="D2">
-        <v>0.7203196040432472</v>
+        <v>0.7106540107189163</v>
       </c>
       <c r="E2">
-        <v>9879.269807805622</v>
+        <v>3822.380514373621</v>
       </c>
       <c r="F2">
-        <v>0.2796803959567528</v>
+        <v>0.1940314058866316</v>
       </c>
       <c r="G2">
-        <v>3835.85019219438</v>
+        <v>1043.632842214308</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.09531458339445194</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>512.6666434120708</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1238,206 +1229,206 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>26835</v>
+        <v>2816.24</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.3290499252879423</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>926.6835615929148</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6036718536496696</v>
       </c>
       <c r="G3">
-        <v>26835</v>
+        <v>1700.084821122346</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01970547031554419</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>55.49533372144818</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.04757275074684381</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>133.9762835632914</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
       <c r="C4">
-        <v>11813.52</v>
+        <v>4062.880000000001</v>
       </c>
       <c r="D4">
-        <v>0.2686371247226884</v>
+        <v>0.451490579415013</v>
       </c>
       <c r="E4">
-        <v>3173.550045653974</v>
+        <v>1834.352045293668</v>
       </c>
       <c r="F4">
-        <v>0.5716063443351023</v>
+        <v>0.4698528086710667</v>
       </c>
       <c r="G4">
-        <v>6752.682980929618</v>
+        <v>1908.955579293504</v>
       </c>
       <c r="H4">
-        <v>0.1597565309422093</v>
+        <v>0.03905124774921262</v>
       </c>
       <c r="I4">
-        <v>1887.286973416409</v>
+        <v>158.660533455321</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.03960536416470775</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>160.9118419575078</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>5378.68</v>
+        <v>4534.68</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.2418234127364369</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1096.591793267666</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.7294574180822524</v>
       </c>
       <c r="G5">
-        <v>5378.68</v>
+        <v>3307.855964629229</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.02208829116628782</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>100.1633321859421</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.006630878015022912</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>30.0689099171641</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6">
-        <v>4534.68</v>
+        <v>11813.52</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.03115927001577109</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>368.1006595167121</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.8586113691592343</v>
       </c>
       <c r="G6">
-        <v>4534.68</v>
+        <v>10143.22258179</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0225249404565677</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>266.0988345824717</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.08770442036842702</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1036.09792411082</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7">
-        <v>4062.880000000001</v>
+        <v>21519.908</v>
       </c>
       <c r="D7">
-        <v>0.5480373400211801</v>
+        <v>0.3453075914522154</v>
       </c>
       <c r="E7">
-        <v>2226.609948025252</v>
+        <v>7430.987599753263</v>
       </c>
       <c r="F7">
-        <v>0.18983405326939</v>
+        <v>0.5658377226259738</v>
       </c>
       <c r="G7">
-        <v>771.2729783471395</v>
+        <v>12176.77573384048</v>
       </c>
       <c r="H7">
-        <v>0.1812730652342958</v>
+        <v>0.0592864017109811</v>
       </c>
       <c r="I7">
-        <v>736.4907112791157</v>
+        <v>1275.837910471356</v>
       </c>
       <c r="J7">
-        <v>0.08085554147513409</v>
+        <v>0.02956828421082979</v>
       </c>
       <c r="K7">
-        <v>328.5063623484928</v>
+        <v>636.3067559349098</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8">
-        <v>5907.84</v>
+        <v>8641.438</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.6672571779664611</v>
       </c>
       <c r="E8">
-        <v>5907.84</v>
+        <v>5766.061533452141</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.259974004174096</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2246.549238682192</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.07276881785944292</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>628.8272278656688</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1448,136 +1439,136 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C9">
-        <v>11813.52</v>
+        <v>5903.405000000001</v>
       </c>
       <c r="D9">
-        <v>0.6986378325573731</v>
+        <v>0.430018342774032</v>
       </c>
       <c r="E9">
-        <v>8253.372007673179</v>
+        <v>2538.572434823935</v>
       </c>
       <c r="F9">
-        <v>0.1309296905708729</v>
+        <v>0.4386203619332985</v>
       </c>
       <c r="G9">
-        <v>1546.740518152818</v>
+        <v>2589.353637738844</v>
       </c>
       <c r="H9">
-        <v>0.1704324768717539</v>
+        <v>0.07445704614588498</v>
       </c>
       <c r="I9">
-        <v>2013.407474174003</v>
+        <v>439.5500985028482</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.05690424914678459</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>335.9288289343739</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10">
-        <v>5378.68</v>
+        <v>5357.880000000001</v>
       </c>
       <c r="D10">
-        <v>0.6986378325573731</v>
+        <v>0.503759477991108</v>
       </c>
       <c r="E10">
-        <v>3757.749337219692</v>
+        <v>2699.082831938998</v>
       </c>
       <c r="F10">
-        <v>0.1309296905708729</v>
+        <v>0.3269055964410499</v>
       </c>
       <c r="G10">
-        <v>704.2289080797425</v>
+        <v>1751.520957059573</v>
       </c>
       <c r="H10">
-        <v>0.1704324768717539</v>
+        <v>0.06928128169712645</v>
       </c>
       <c r="I10">
-        <v>916.7017547005655</v>
+        <v>371.2007935793999</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1000536438707157</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>536.0754174220305</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11">
-        <v>4872.88</v>
+        <v>5907.84</v>
       </c>
       <c r="D11">
-        <v>0.6986378325573731</v>
+        <v>0.3042856291533364</v>
       </c>
       <c r="E11">
-        <v>3404.378321512173</v>
+        <v>1797.670811337247</v>
       </c>
       <c r="F11">
-        <v>0.1309296905708729</v>
+        <v>0.53127577367946</v>
       </c>
       <c r="G11">
-        <v>638.0046705889951</v>
+        <v>3138.692266774461</v>
       </c>
       <c r="H11">
-        <v>0.1704324768717539</v>
+        <v>0.1465290131006264</v>
       </c>
       <c r="I11">
-        <v>830.4970078988323</v>
+        <v>865.6699647564045</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.01790958406657735</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>105.8069571318884</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C12">
-        <v>6237.358</v>
+        <v>13715.12</v>
       </c>
       <c r="D12">
-        <v>0.4671520190982254</v>
+        <v>0.5351307850709578</v>
       </c>
       <c r="E12">
-        <v>2913.794383538469</v>
+        <v>7339.382932942396</v>
       </c>
       <c r="F12">
-        <v>0.4362981448828352</v>
+        <v>0.427848515348812</v>
       </c>
       <c r="G12">
-        <v>2721.347724370112</v>
+        <v>5867.993729830799</v>
       </c>
       <c r="H12">
-        <v>0.09654983601893945</v>
+        <v>0.03702069958023029</v>
       </c>
       <c r="I12">
-        <v>602.2158920914202</v>
+        <v>507.7433372268081</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1588,71 +1579,36 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C13">
-        <v>21519.908</v>
+        <v>9918.480000000001</v>
       </c>
       <c r="D13">
-        <v>0.4671520190982254</v>
+        <v>0.1606215520728562</v>
       </c>
       <c r="E13">
-        <v>10053.06847300806</v>
+        <v>1593.121651803583</v>
       </c>
       <c r="F13">
-        <v>0.4362981448828352</v>
+        <v>0.8104340121734962</v>
       </c>
       <c r="G13">
-        <v>9389.095938449287</v>
+        <v>8038.273541062579</v>
       </c>
       <c r="H13">
-        <v>0.09654983601893945</v>
+        <v>0.02894443575364755</v>
       </c>
       <c r="I13">
-        <v>2077.743588542663</v>
+        <v>287.0848071338382</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14">
-        <v>5357.558000000001</v>
-      </c>
-      <c r="D14">
-        <v>0.4671520190982254</v>
-      </c>
-      <c r="E14">
-        <v>2502.79403713585</v>
-      </c>
-      <c r="F14">
-        <v>0.4362981448828352</v>
-      </c>
-      <c r="G14">
-        <v>2337.492616502193</v>
-      </c>
-      <c r="H14">
-        <v>0.09654983601893945</v>
-      </c>
-      <c r="I14">
-        <v>517.2713463619572</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
         <v>0</v>
       </c>
     </row>
@@ -1663,7 +1619,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1706,31 +1662,31 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C2">
-        <v>1408.12</v>
+        <v>2689.34</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.5993405930558749</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1611.830630528887</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3636580578984003</v>
       </c>
       <c r="G2">
-        <v>1408.12</v>
+        <v>978.0001614284838</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.03700134904572487</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>99.50920804262974</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1741,66 +1697,66 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3">
-        <v>13417.5</v>
+        <v>1408.12</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.1643234671516556</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>231.3871605655893</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.7269411387684906</v>
       </c>
       <c r="G3">
-        <v>13417.5</v>
+        <v>1023.620356322687</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.02725234414210714</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>38.37457083338391</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.08148304993774656</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>114.7379122783397</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4">
-        <v>5906.760000000001</v>
+        <v>2031.44</v>
       </c>
       <c r="D4">
-        <v>0.4958472855812806</v>
+        <v>0.4917716660792545</v>
       </c>
       <c r="E4">
-        <v>2928.850912580085</v>
+        <v>999.004633340041</v>
       </c>
       <c r="F4">
-        <v>0.2016356958596897</v>
+        <v>0.5018100436891416</v>
       </c>
       <c r="G4">
-        <v>1191.013662876181</v>
+        <v>1019.39699515187</v>
       </c>
       <c r="H4">
-        <v>0.3025170185590298</v>
+        <v>0.006418290231603986</v>
       </c>
       <c r="I4">
-        <v>1786.895424543736</v>
+        <v>13.0383715080896</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1811,31 +1767,31 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5">
-        <v>2689.34</v>
+        <v>2267.34</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.4068563174242845</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>922.4816027487774</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5438038650798588</v>
       </c>
       <c r="G5">
-        <v>2689.34</v>
+        <v>1232.988255450167</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.04933981749585655</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>111.8701418010554</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1846,25 +1802,25 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6">
-        <v>2436.44</v>
+        <v>5906.760000000001</v>
       </c>
       <c r="D6">
-        <v>0.8405128819480061</v>
+        <v>0.07562392814612101</v>
       </c>
       <c r="E6">
-        <v>2047.8592060934</v>
+        <v>446.6923938163818</v>
       </c>
       <c r="F6">
-        <v>0.1594871180519939</v>
+        <v>0.9243760718538789</v>
       </c>
       <c r="G6">
-        <v>388.5807939066</v>
+        <v>5460.067606183619</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1881,31 +1837,31 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
       <c r="C7">
-        <v>2267.34</v>
+        <v>10759.954</v>
       </c>
       <c r="D7">
-        <v>0.5079094701116023</v>
+        <v>0.5497172552716943</v>
       </c>
       <c r="E7">
-        <v>1151.60345796284</v>
+        <v>5914.932379729689</v>
       </c>
       <c r="F7">
-        <v>0.4920905298883979</v>
+        <v>0.3892670239583827</v>
       </c>
       <c r="G7">
-        <v>1115.73654203716</v>
+        <v>4188.495271509097</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.06101572076992296</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>656.5263487612158</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1919,28 +1875,28 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8">
-        <v>4959.240000000001</v>
+        <v>4320.719</v>
       </c>
       <c r="D8">
-        <v>0.5648647401941971</v>
+        <v>0.4732055462978784</v>
       </c>
       <c r="E8">
-        <v>2801.29981416067</v>
+        <v>2044.588194794623</v>
       </c>
       <c r="F8">
-        <v>0.4351352598058029</v>
+        <v>0.4835065653399762</v>
       </c>
       <c r="G8">
-        <v>2157.94018583933</v>
+        <v>2089.096003489177</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0432878883621454</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>187.0348017162005</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1951,136 +1907,136 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C9">
-        <v>13417.5</v>
+        <v>2951.7025</v>
       </c>
       <c r="D9">
-        <v>0.5514290487937468</v>
+        <v>0.2802404301971404</v>
       </c>
       <c r="E9">
-        <v>7398.799262190098</v>
+        <v>827.1863784139749</v>
       </c>
       <c r="F9">
-        <v>0.4485709512062533</v>
+        <v>0.5367967648046197</v>
       </c>
       <c r="G9">
-        <v>6018.700737809904</v>
+        <v>1584.464352665708</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.1358818889553052</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>401.0829113340969</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.04708091604293471</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>138.9688575862205</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C10">
-        <v>5906.760000000001</v>
+        <v>2678.940000000001</v>
       </c>
       <c r="D10">
-        <v>0.5697812081955935</v>
+        <v>0.5337870602633682</v>
       </c>
       <c r="E10">
-        <v>3365.560849321404</v>
+        <v>1429.983507221948</v>
       </c>
       <c r="F10">
-        <v>0.4302187918044066</v>
+        <v>0.3095139273790007</v>
       </c>
       <c r="G10">
-        <v>2541.199150678597</v>
+        <v>829.1692406127004</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.1393912851416745</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>373.4208894174375</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.0173077272159565</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>46.36636274791451</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11">
-        <v>2689.34</v>
+        <v>2953.92</v>
       </c>
       <c r="D11">
-        <v>0.5697812081955935</v>
+        <v>0.3287750150324628</v>
       </c>
       <c r="E11">
-        <v>1532.335394448738</v>
+        <v>971.1750924046927</v>
       </c>
       <c r="F11">
-        <v>0.4302187918044066</v>
+        <v>0.5839649092903765</v>
       </c>
       <c r="G11">
-        <v>1157.004605551263</v>
+        <v>1724.985624851029</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.08115156926686631</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>239.7152434887818</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.006108506410294514</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>18.04403925549717</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C12">
-        <v>2436.44</v>
+        <v>6857.560000000001</v>
       </c>
       <c r="D12">
-        <v>0.5697812081955935</v>
+        <v>0.5928738109452726</v>
       </c>
       <c r="E12">
-        <v>1388.237726896072</v>
+        <v>4065.667730985864</v>
       </c>
       <c r="F12">
-        <v>0.4302187918044066</v>
+        <v>0.2064855341440782</v>
       </c>
       <c r="G12">
-        <v>1048.202273103929</v>
+        <v>1415.986939525065</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.2006406549106493</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1375.905329489072</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -2091,107 +2047,37 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C13">
-        <v>3118.679</v>
+        <v>4959.240000000001</v>
       </c>
       <c r="D13">
-        <v>0.112582448398471</v>
+        <v>0.3666693062507451</v>
       </c>
       <c r="E13">
-        <v>351.108517588895</v>
+        <v>1818.401090330945</v>
       </c>
       <c r="F13">
-        <v>0.8584936775155422</v>
+        <v>0.5168045651851666</v>
       </c>
       <c r="G13">
-        <v>2677.366203700494</v>
+        <v>2562.957871848886</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.06306542781760052</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>312.7565922501573</v>
       </c>
       <c r="J13">
-        <v>0.02892387408598686</v>
+        <v>0.05346070074648779</v>
       </c>
       <c r="K13">
-        <v>90.20427871061142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14">
-        <v>10759.954</v>
-      </c>
-      <c r="D14">
-        <v>0.112582448398471</v>
-      </c>
-      <c r="E14">
-        <v>1211.381965974922</v>
-      </c>
-      <c r="F14">
-        <v>0.8584936775155422</v>
-      </c>
-      <c r="G14">
-        <v>9237.352479358071</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0.02892387408598686</v>
-      </c>
-      <c r="K14">
-        <v>311.2195546670107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15">
-        <v>2678.779</v>
-      </c>
-      <c r="D15">
-        <v>0.112582448398471</v>
-      </c>
-      <c r="E15">
-        <v>301.5834985384077</v>
-      </c>
-      <c r="F15">
-        <v>0.8584936775155422</v>
-      </c>
-      <c r="G15">
-        <v>2299.714834961407</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0.02892387408598686</v>
-      </c>
-      <c r="K15">
-        <v>77.48066650018581</v>
+        <v>265.1244455700121</v>
       </c>
     </row>
   </sheetData>
@@ -2201,7 +2087,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2244,212 +2130,37 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2">
-        <v>17720.28</v>
+        <v>8861.76</v>
       </c>
       <c r="D2">
-        <v>0.2304031860173474</v>
+        <v>0.3202038642640018</v>
       </c>
       <c r="E2">
-        <v>4082.808969119482</v>
+        <v>2837.569796180161</v>
       </c>
       <c r="F2">
-        <v>0.4969275497660341</v>
+        <v>0.6089976789828835</v>
       </c>
       <c r="G2">
-        <v>8805.695321568059</v>
+        <v>5396.791271703358</v>
       </c>
       <c r="H2">
-        <v>0.2726692642166184</v>
+        <v>0.06801939348145869</v>
       </c>
       <c r="I2">
-        <v>4831.775709312459</v>
+        <v>602.7715403782513</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.002779063271655956</v>
       </c>
       <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3">
-        <v>8068.02</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>8068.02</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4">
-        <v>7309.32</v>
-      </c>
-      <c r="D4">
-        <v>0.7820095700217157</v>
-      </c>
-      <c r="E4">
-        <v>5715.958190351127</v>
-      </c>
-      <c r="F4">
-        <v>0.2179904299782842</v>
-      </c>
-      <c r="G4">
-        <v>1593.361809648872</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5">
-        <v>6802.02</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>6802.02</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6">
-        <v>6094.32</v>
-      </c>
-      <c r="D6">
-        <v>0.233279274036484</v>
-      </c>
-      <c r="E6">
-        <v>1421.678545346025</v>
-      </c>
-      <c r="F6">
-        <v>0.7667207259635161</v>
-      </c>
-      <c r="G6">
-        <v>4672.641454653975</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7">
-        <v>8861.76</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>8861.76</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
+        <v>24.62739173822989</v>
       </c>
     </row>
   </sheetData>
